--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F133A4-246B-4E07-BA7B-9984839FDED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61691D61-6C18-446D-A809-BA700DFD9F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,RaP,FaD,WaP,FaP,SaP,SaD,RaD</t>
-  </si>
-  <si>
-    <t>SaN,WaN,WaP,FaN,RaP,RaN,FaP,SaP</t>
+    <t>FaP,SaP,FaD,SaD,RaD,RaP,WaD,WaP</t>
+  </si>
+  <si>
+    <t>WaP,SaN,WaN,RaP,FaP,SaP,FaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,WaP,FaN,RaP,RaN,FaP,SaP</v>
+        <v>WaP,SaN,WaN,RaP,FaP,SaP,FaN,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaD,RaP,FaD,WaP,FaP,SaP,SaD,RaD</v>
+        <v>FaP,SaP,FaD,SaD,RaD,RaP,WaD,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6039011-373B-453A-AF24-E72E848AFB27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D149240-89A9-438D-B385-D70D1E0F94F6}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1347F10C-B315-487C-817A-D4C32BC717C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BE8C8C-1743-4E27-9F03-AD1433B97DF6}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>0.26274737453163749</v>
+        <v>0.32525199218956147</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N6">
-        <v>0.32525199218956147</v>
+        <v>0.34545358594121056</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.34545358594121056</v>
+        <v>0.26274737453163749</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C10FA5E-5AEC-464A-A9A0-3061BF3E2535}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911212B8-A280-42E7-A5EA-EB60D8670C30}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61691D61-6C18-446D-A809-BA700DFD9F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE019ED-7277-43E5-AD01-9C41B572F5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
-    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
-    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="85">
   <si>
     <t>UC_N</t>
   </si>
@@ -78,6 +76,24 @@
     <t>day</t>
   </si>
   <si>
+    <t>daynight</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
+  </si>
+  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -277,99 +293,6 @@
   </si>
   <si>
     <t>~TimeSlices</t>
-  </si>
-  <si>
-    <t>com_fr</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>FaD</t>
-  </si>
-  <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
-    <t>elc_spv-DEU</t>
-  </si>
-  <si>
-    <t>FaN</t>
-  </si>
-  <si>
-    <t>FaP</t>
-  </si>
-  <si>
-    <t>RaD</t>
-  </si>
-  <si>
-    <t>RaN</t>
-  </si>
-  <si>
-    <t>RaP</t>
-  </si>
-  <si>
-    <t>SaD</t>
-  </si>
-  <si>
-    <t>SaN</t>
-  </si>
-  <si>
-    <t>SaP</t>
-  </si>
-  <si>
-    <t>WaD</t>
-  </si>
-  <si>
-    <t>WaN</t>
-  </si>
-  <si>
-    <t>WaP</t>
-  </si>
-  <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
-    <t>elc_won-DEU</t>
-  </si>
-  <si>
-    <t>g_yrfr</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>day_night</t>
-  </si>
-  <si>
-    <t>FaP,SaP,FaD,SaD,RaD,RaP,WaD,WaP</t>
-  </si>
-  <si>
-    <t>WaP,SaN,WaN,RaP,FaP,SaP,FaN,RaN</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>ncap_afs</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -862,7 +785,7 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -883,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -898,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -906,21 +829,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>WaP,SaN,WaN,RaP,FaP,SaP,FaN,RaN</v>
+        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -938,21 +861,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,FaD,SaD,RaD,RaP,WaD,WaP</v>
+        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -964,26 +887,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1011,551 +934,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1565,1056 +1488,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D149240-89A9-438D-B385-D70D1E0F94F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A685CE-E907-4953-AD57-12E878605048}">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BE8C8C-1743-4E27-9F03-AD1433B97DF6}">
-  <dimension ref="B2:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4">
-        <v>0.15944174</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4">
-        <v>0.13238296618625425</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4">
-        <v>0.32525199218956147</v>
-      </c>
-      <c r="O4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5">
-        <v>5.4444999999999993E-4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5">
-        <v>0.12839863851813038</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5">
-        <v>0.26654704733759038</v>
-      </c>
-      <c r="O5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6">
-        <v>1.476499E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6">
-        <v>2.3888165440168117E-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6">
-        <v>0.34545358594121056</v>
-      </c>
-      <c r="O6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7">
-        <v>0.24811827</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7">
-        <v>0.1061667881422058</v>
-      </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7">
-        <v>0.26274737453163749</v>
-      </c>
-      <c r="O7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8">
-        <v>8.3905799999999999E-3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8">
-        <v>9.7272622988364893E-2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9">
-        <v>3.8110339999999999E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9">
-        <v>1.7995446778611188E-2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10">
-        <v>0.34406487000000002</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10">
-        <v>6.957334563816478E-2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11">
-        <v>2.970242E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11">
-        <v>5.2734780144139605E-2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12">
-        <v>5.9049230000000001E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12">
-        <v>9.5747300470114868E-3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13">
-        <v>9.5725530000000003E-2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13">
-        <v>0.16511300873272136</v>
-      </c>
-      <c r="J13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14">
-        <v>0.16564529542855089</v>
-      </c>
-      <c r="J14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>2.08728E-3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15">
-        <v>3.1254211955502091E-2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911212B8-A280-42E7-A5EA-EB60D8670C30}">
-  <dimension ref="B2:O27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="C4">
-        <v>0.16087081189037786</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4">
-        <v>0.12154185877629864</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4">
-        <v>0.17884372713897179</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="C5">
-        <v>5.2547713165767528E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5">
-        <v>8.8527190099622954E-2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5">
-        <v>0.36727282398527206</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>2.0776255707762557E-2</v>
-      </c>
-      <c r="C6">
-        <v>3.5896543437005365E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6">
-        <v>2.2637574024520383E-2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6">
-        <v>0.16609836701710967</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C7">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7">
-        <v>0.13551107552473518</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7">
-        <v>0.22024800426650004</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C8">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8">
-        <v>0.10048263795391252</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8">
-        <v>0.41879867138276894</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C9">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9">
-        <v>2.5034684908137404E-2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9">
-        <v>0.21176347115901417</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C10">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10">
-        <v>0.11376739849528658</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10">
-        <v>0.11652662920397838</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C11">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11">
-        <v>8.1319196279968115E-2</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" t="s">
-        <v>91</v>
-      </c>
-      <c r="O11">
-        <v>0.26664324648860149</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C12">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12">
-        <v>2.0819513785419224E-2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12">
-        <v>8.2939888326658107E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="C13">
-        <v>0.15910300077070333</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13">
-        <v>0.15008049673136389</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" t="s">
-        <v>93</v>
-      </c>
-      <c r="O13">
-        <v>0.13042023902363176</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="C14">
-        <v>5.197026576834151E-2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14">
-        <v>0.11194412076470171</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14">
-        <v>0.32342907502345386</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>2.0547945205479451E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.5502075926708607E-2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15">
-        <v>2.8334252656033367E-2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15">
-        <v>0.10802714049505879</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16">
-        <v>0.11506316199164349</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17">
-        <v>0.11321189286390412</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18">
-        <v>2.0950801910466603E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19">
-        <v>0.11643727462754408</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20">
-        <v>0.11447308514247369</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21">
-        <v>2.119263617281722E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22">
-        <v>0.11626660111669057</v>
-      </c>
-    </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23">
-        <v>0.11444709610816986</v>
-      </c>
-    </row>
-    <row r="24" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H24" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24">
-        <v>2.1146925800818128E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25">
-        <v>0.11407471408982019</v>
-      </c>
-    </row>
-    <row r="26" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H26" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26">
-        <v>0.11193624963444851</v>
-      </c>
-    </row>
-    <row r="27" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H27" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27">
-        <v>2.0799560541203545E-2</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE019ED-7277-43E5-AD01-9C41B572F5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC67A3-5966-4F0E-BCC0-57058C8BDA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1488,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A685CE-E907-4953-AD57-12E878605048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD36318-945A-4DD3-A311-297563C52CD5}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6959065F-B315-4CD0-B5A4-6691AA811677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6764D0F9-9F2B-47AE-8443-06816ACDED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1899,10 +1899,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,FaD,SaD,RaP,RaD,WaD,WaP</t>
+    <t>SaD,FaP,SaP,RaP,WaD,RaD,WaP,FaD</t>
   </si>
   <si>
-    <t>RaP,FaP,SaP,FaN,RaN,WaP,SaN,WaN</t>
+    <t>FaP,SaP,WaP,FaN,RaN,SaN,WaN,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>RaP,FaP,SaP,FaN,RaN,WaP,SaN,WaN</v>
+        <v>FaP,SaP,WaP,FaN,RaN,SaN,WaN,RaP</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>FaP,SaP,FaD,SaD,RaP,RaD,WaD,WaP</v>
+        <v>SaD,FaP,SaP,RaP,WaD,RaD,WaP,FaD</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -2553,7 +2553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B9475D-98BA-48F7-B2FC-578E3CFD1509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EF82A7-AFE4-418F-8851-77C8BC024D68}">
   <dimension ref="A9:AM2278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2776,10 +2776,10 @@
         <v>0.17884372713897179</v>
       </c>
       <c r="AK11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL11">
-        <v>0.26274737453163749</v>
+        <v>0.32525199218956147</v>
       </c>
       <c r="AM11" t="s">
         <v>626</v>
@@ -2948,10 +2948,10 @@
         <v>0.16609836701710967</v>
       </c>
       <c r="AK13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL13">
-        <v>0.32525199218956147</v>
+        <v>0.26274737453163755</v>
       </c>
       <c r="AM13" t="s">
         <v>626</v>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1F9E258-6C0D-4944-B6EC-868E85EA8F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FADCD864-E335-46A1-9062-B651C4E7450C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1443,10 +1443,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaP,FaP,SaP,WaP,WaD,FaD,SaD,RaD</t>
+    <t>WaD,FaP,SaP,FaD,RaD,WaP,SaD,RaP</t>
   </si>
   <si>
-    <t>FaN,RaN,SaN,WaN,WaP,RaP,FaP,SaP</t>
+    <t>RaP,FaN,WaP,SaN,WaN,RaN,FaP,SaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>FaN,RaN,SaN,WaN,WaP,RaP,FaP,SaP</v>
+        <v>RaP,FaN,WaP,SaN,WaN,RaN,FaP,SaP</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>RaP,FaP,SaP,WaP,WaD,FaD,SaD,RaD</v>
+        <v>WaD,FaP,SaP,FaD,RaD,WaP,SaD,RaP</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -2097,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B47988D-3B5C-4D04-8CDD-99314B56ED8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFA1394-1AC2-4C15-A1F4-8E501F9981C9}">
   <dimension ref="A9:AM2278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2320,10 +2320,10 @@
         <v>0.17884372713897179</v>
       </c>
       <c r="AK11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL11">
-        <v>0.34545358594121056</v>
+        <v>0.26274737453163755</v>
       </c>
       <c r="AM11" t="s">
         <v>474</v>
@@ -2492,10 +2492,10 @@
         <v>0.16609836701710967</v>
       </c>
       <c r="AK13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL13">
-        <v>0.26654704733759038</v>
+        <v>0.34545358594121056</v>
       </c>
       <c r="AM13" t="s">
         <v>474</v>
@@ -2572,10 +2572,10 @@
         <v>0.22024800426650004</v>
       </c>
       <c r="AK14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AL14">
-        <v>0.26274737453163749</v>
+        <v>0.26654704733759033</v>
       </c>
       <c r="AM14" t="s">
         <v>474</v>
